--- a/Data/vo2maksTestark2.xlsx
+++ b/Data/vo2maksTestark2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows User\Documents\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows User\Documents\Master\Arbeidskrav 1 innlevering 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F93619-8F74-488B-8A39-F8495E251FBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717437A-348A-4145-907D-C27CD42116FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{525C726F-614B-4854-A6C7-FB1C4DE28A17}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>vo2</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>fp</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -394,20 +394,20 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>4515</v>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>4372</v>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5041.6000000000004</v>
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5049.5</v>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>3088</v>
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>3129.5</v>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2827.5</v>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>2897</v>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>4922</v>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>4695.5</v>
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>5014.5</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>4933.5</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>2627</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>2627</v>
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>4128.5</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>4149</v>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>3555</v>
@@ -602,7 +602,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>3682.5</v>
@@ -613,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>4115</v>
@@ -624,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>4076</v>
@@ -635,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>4886</v>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>4176</v>
